--- a/data/eBooks-main/current/cloud-native/Architecting-Cloud-Native-NET-Apps-for-Azure.pdf.hwaifs/tables/py/gmft/df.tables-27.xlsx
+++ b/data/eBooks-main/current/cloud-native/Architecting-Cloud-Native-NET-Apps-for-Azure.pdf.hwaifs/tables/py/gmft/df.tables-27.xlsx
@@ -442,12 +442,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>resource "azurerm_resource_group"</t>
+          <t>resource "azurerm_resource_group" "testrg"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"testrg" {</t>
+          <t>{</t>
         </is>
       </c>
     </row>
@@ -466,14 +466,10 @@
       <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>resource "azurerm_storage_account"</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"testsa" {</t>
+          <t>"testsa"</t>
         </is>
       </c>
     </row>
@@ -483,12 +479,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>name = resource_group_name = location = account_tier = account_replication_type =</t>
+          <t>resource "azurerm_storage_account" name = resource_group_name = location = account_tier = "${var.tier}" account_replication_type =</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"${var.storageAccountName}" "${azurerm_resource_group.testrg.name}" "${var.region}" "${var.tier}" "${var.replicationType}"</t>
+          <t>{ "${var.storageAccountName}" "${azurerm_resource_group.testrg.name}" "${var.region}" "${var.replicationType}"</t>
         </is>
       </c>
     </row>
